--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_1_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_1_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-289324.9766344808</v>
+        <v>-291212.5581508831</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800624</v>
       </c>
     </row>
     <row r="8">
@@ -659,13 +659,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>57.66595549467266</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +674,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>147.3117810541611</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -750,7 +750,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231963</v>
       </c>
       <c r="H3" t="n">
         <v>104.3883541553076</v>
@@ -817,10 +817,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>259.1356101965862</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>139.4363092953499</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>8.740604011592637</v>
+        <v>327.4135185982936</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>93.23956689310509</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>195.6275052289086</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>355.8867205769042</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>82.73879283561345</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>76.37590626022401</v>
+        <v>25.3159054168623</v>
       </c>
     </row>
     <row r="11">
@@ -1424,7 +1424,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>45.12099278363245</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,19 +1582,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>187.1449259683226</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1768,22 +1768,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>139.1537278750039</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>197.0967272943883</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1901,7 +1901,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2011,13 +2011,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,22 +2050,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>186.4514409152056</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G20" t="n">
         <v>411.9645167896915</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2245,13 +2245,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>116.3407940976802</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2375,7 +2375,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T25" t="n">
-        <v>155.8411223854213</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2536,13 +2536,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2609,10 +2609,10 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>5.10773133594585</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>234.5175081001671</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>109.8918198632046</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2956,10 +2956,10 @@
         <v>93.41221638965524</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801206</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>73.8771026809077</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>111.2903118348205</v>
@@ -2968,7 +2968,7 @@
         <v>93.71057173897901</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571485</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523567</v>
+        <v>54.76109577523565</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550461</v>
@@ -3086,7 +3086,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857166</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463129</v>
+        <v>42.2873553346315</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3323,7 +3323,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857166</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463129</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415367</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898712</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857165</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692846</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329054</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373688</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789542</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463127</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415208</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
-        <v>129.7889198539625</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T40" t="n">
-        <v>153.4156709287485</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U40" t="n">
-        <v>218.1054622689366</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
-        <v>157.5777652593964</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1838.661061815299</v>
+        <v>1717.15289212512</v>
       </c>
       <c r="C2" t="n">
-        <v>1780.41262192169</v>
+        <v>1717.15289212512</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>1358.887193518369</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>1358.887193518369</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>947.9012887287618</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>529.9374806269486</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>202.7427606629515</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V2" t="n">
-        <v>1838.661061815299</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W2" t="n">
-        <v>1838.661061815299</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="X2" t="n">
-        <v>1838.661061815299</v>
+        <v>1717.15289212512</v>
       </c>
       <c r="Y2" t="n">
-        <v>1838.661061815299</v>
+        <v>1717.15289212512</v>
       </c>
     </row>
     <row r="3">
@@ -4389,19 +4389,19 @@
         <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4413,19 +4413,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>211.6913543878343</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C4" t="n">
-        <v>211.6913543878343</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005476</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W4" t="n">
-        <v>211.6913543878343</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X4" t="n">
-        <v>211.6913543878343</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="Y4" t="n">
-        <v>211.6913543878343</v>
+        <v>372.9958041606071</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1562.681172365833</v>
+        <v>1683.321707331112</v>
       </c>
       <c r="C5" t="n">
-        <v>1193.718655425422</v>
+        <v>1314.359190390701</v>
       </c>
       <c r="D5" t="n">
-        <v>1193.718655425422</v>
+        <v>956.0934917839502</v>
       </c>
       <c r="E5" t="n">
-        <v>807.9304028271774</v>
+        <v>956.0934917839502</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2267.209817970484</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>1936.146930626913</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W5" t="n">
-        <v>1936.146930626913</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="X5" t="n">
-        <v>1562.681172365833</v>
+        <v>2069.921547395234</v>
       </c>
       <c r="Y5" t="n">
-        <v>1562.681172365833</v>
+        <v>2069.921547395234</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4668,7 +4668,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942404</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>456.3840257941342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>456.3840257941342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>456.3840257941342</v>
+        <v>501.108524424795</v>
       </c>
       <c r="V7" t="n">
-        <v>456.3840257941342</v>
+        <v>501.108524424795</v>
       </c>
       <c r="W7" t="n">
-        <v>456.3840257941342</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="X7" t="n">
-        <v>456.3840257941342</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="Y7" t="n">
-        <v>235.5914466506042</v>
+        <v>211.6913543878343</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1584.674208896763</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C8" t="n">
-        <v>1215.711691956351</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D8" t="n">
-        <v>857.4459933496007</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E8" t="n">
-        <v>471.6577407513565</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>464.712240002153</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,16 +4805,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304455</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2302.336936304455</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>1971.274048960885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>1971.274048960885</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X8" t="n">
-        <v>1971.274048960885</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="Y8" t="n">
-        <v>1971.274048960885</v>
+        <v>1723.03492661696</v>
       </c>
     </row>
     <row r="9">
@@ -4887,19 +4887,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>361.80799380017</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C10" t="n">
-        <v>361.80799380017</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D10" t="n">
-        <v>211.6913543878343</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>361.80799380017</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="11">
@@ -5015,40 +5015,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155902</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5060,7 +5060,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014292</v>
@@ -5072,19 +5072,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>868.4856756861129</v>
+        <v>731.3351829786183</v>
       </c>
       <c r="C13" t="n">
-        <v>699.549492758206</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="D13" t="n">
-        <v>653.9727323706985</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E13" t="n">
-        <v>506.0596387883054</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
-        <v>359.1696912903951</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5203,46 +5203,46 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799343</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.063975947117</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974665</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980062</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585744</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.9162705579</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.9162705579</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.9162705579</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.9162705579</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.9162705579</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.9162705579</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.9162705579</v>
+        <v>920.3704617344997</v>
       </c>
       <c r="X13" t="n">
-        <v>1270.926719659883</v>
+        <v>920.3704617344997</v>
       </c>
       <c r="Y13" t="n">
-        <v>1050.134140516353</v>
+        <v>731.3351829786183</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155903</v>
       </c>
       <c r="G14" t="n">
         <v>488.1932370805469</v>
@@ -5273,10 +5273,10 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514085</v>
@@ -5291,37 +5291,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,25 +5352,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>824.3515998808206</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>824.3515998808206</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>674.2349604684849</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684849</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
         <v>779.0639759471194</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557903</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557903</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V16" t="n">
-        <v>1244.231782352016</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>1045.144179024351</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>1045.144179024351</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y16" t="n">
-        <v>824.3515998808206</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,67 +5498,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5589,25 +5589,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>415.8104215925219</v>
+        <v>213.911007420102</v>
       </c>
       <c r="C19" t="n">
-        <v>415.8104215925219</v>
+        <v>213.911007420102</v>
       </c>
       <c r="D19" t="n">
-        <v>415.8104215925219</v>
+        <v>213.911007420102</v>
       </c>
       <c r="E19" t="n">
-        <v>415.8104215925219</v>
+        <v>213.911007420102</v>
       </c>
       <c r="F19" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799367</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471195</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U19" t="n">
-        <v>1075.21084526296</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V19" t="n">
-        <v>1075.21084526296</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W19" t="n">
-        <v>785.7936752259998</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X19" t="n">
-        <v>597.4588864227617</v>
+        <v>213.911007420102</v>
       </c>
       <c r="Y19" t="n">
-        <v>597.4588864227617</v>
+        <v>213.911007420102</v>
       </c>
     </row>
     <row r="20">
@@ -5726,16 +5726,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
         <v>904.3190116155888</v>
@@ -5747,55 +5747,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5826,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C22" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D22" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E22" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T22" t="n">
-        <v>1187.92115703528</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>1187.92115703528</v>
+        <v>869.3083006011508</v>
       </c>
       <c r="V22" t="n">
-        <v>1070.40520340126</v>
+        <v>614.6238123952639</v>
       </c>
       <c r="W22" t="n">
-        <v>780.9880333642989</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>780.9880333642989</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y22" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="23">
@@ -5966,19 +5966,19 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5987,10 +5987,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6026,7 +6026,7 @@
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6066,28 +6066,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
         <v>97.21709146028587</v>
@@ -6145,16 +6145,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,7 +6163,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
         <v>1498.916270557902</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T25" t="n">
-        <v>1341.500995421113</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>1052.372356634671</v>
+        <v>869.3083006011508</v>
       </c>
       <c r="V25" t="n">
-        <v>797.6878684287846</v>
+        <v>614.6238123952639</v>
       </c>
       <c r="W25" t="n">
-        <v>797.6878684287846</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>797.6878684287846</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y25" t="n">
-        <v>576.8952892852544</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6239,13 +6239,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6291,40 +6291,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>266.1532743881928</v>
+        <v>213.911007420102</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>213.911007420102</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>213.911007420102</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>213.911007420102</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>213.911007420102</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>213.911007420102</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6403,31 +6403,31 @@
         <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U28" t="n">
-        <v>1038.244483529058</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V28" t="n">
-        <v>783.5599953231706</v>
+        <v>731.3177283550799</v>
       </c>
       <c r="W28" t="n">
-        <v>494.14282528621</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X28" t="n">
-        <v>266.1532743881928</v>
+        <v>213.911007420102</v>
       </c>
       <c r="Y28" t="n">
-        <v>266.1532743881928</v>
+        <v>213.911007420102</v>
       </c>
     </row>
     <row r="29">
@@ -6455,34 +6455,34 @@
         <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6528,13 +6528,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
@@ -6543,25 +6543,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>953.6472828615138</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>565.4200295030882</v>
+        <v>454.4181912574268</v>
       </c>
       <c r="C31" t="n">
-        <v>565.4200295030882</v>
+        <v>454.4181912574268</v>
       </c>
       <c r="D31" t="n">
-        <v>471.0642553721234</v>
+        <v>360.0624171264619</v>
       </c>
       <c r="E31" t="n">
-        <v>378.9120270711011</v>
+        <v>360.0624171264619</v>
       </c>
       <c r="F31" t="n">
-        <v>304.2886910297802</v>
+        <v>360.0624171264619</v>
       </c>
       <c r="G31" t="n">
-        <v>191.8742346309717</v>
+        <v>247.6479607276533</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>152.9908175569675</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864673</v>
+        <v>164.2510079864676</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933503</v>
+        <v>369.0876362933506</v>
       </c>
       <c r="L31" t="n">
-        <v>671.450905366751</v>
+        <v>671.4509053667514</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962054</v>
+        <v>997.6688721962058</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286025</v>
@@ -6637,7 +6637,7 @@
         <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021648</v>
       </c>
       <c r="Q31" t="n">
         <v>1936.126063056075</v>
@@ -6658,13 +6658,13 @@
         <v>1136.336733737484</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818941</v>
+        <v>902.6804289818938</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652476</v>
+        <v>730.4517433652472</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030882</v>
+        <v>565.420029503088</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6689,7 +6689,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6701,25 +6701,25 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6731,19 +6731,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6765,40 +6765,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982971</v>
+        <v>139.9315917982975</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028587</v>
@@ -6859,7 +6859,7 @@
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
         <v>709.8489468649693</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="35">
@@ -6932,55 +6932,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M36" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108323</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
@@ -7102,43 +7102,43 @@
         <v>709.8489468649692</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
         <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045199</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010309</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="38">
@@ -7163,7 +7163,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7187,13 +7187,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7239,40 +7239,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766204</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083209</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504516</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G40" t="n">
         <v>221.5295092103127</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.931591798297</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
@@ -7336,7 +7336,7 @@
         <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7351,10 +7351,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7476,40 +7476,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M42" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083198</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504505</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G43" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
         <v>394.6863306254955</v>
       </c>
       <c r="L43" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7606,13 +7606,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="44">
@@ -7634,10 +7634,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822462</v>
@@ -7661,22 +7661,22 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
         <v>4262.3578574653</v>
@@ -7713,13 +7713,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
@@ -7728,25 +7728,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M45" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
         <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7807,7 +7807,7 @@
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L46" t="n">
         <v>709.8489468649691</v>
@@ -7840,16 +7840,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8061,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050814</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951776</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,7 +8535,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050818</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,28 +8766,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>124.3400780863229</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298197</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9246,7 +9246,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>288.4091825776746</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>409.7003683229574</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9884,7 +9884,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,31 +9951,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>409.7003683229576</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10130,7 +10130,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10194,10 +10194,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>32.78140656352389</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10425,31 +10425,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>409.7003683229576</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298197</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10914,16 +10914,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>306.1147370139954</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11075,7 +11075,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714807</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11315,10 +11315,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>103.4944802345799</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,19 +23470,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>31.43972738377219</v>
       </c>
     </row>
     <row r="14">
@@ -23656,22 +23656,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,25 +23701,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338537</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>89.4262710422027</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23899,13 +23899,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>29.89407122271345</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23938,22 +23938,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>39.25821447383152</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24133,13 +24133,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>135.7968492261478</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,16 +24361,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24412,10 +24412,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338569</v>
       </c>
       <c r="T25" t="n">
-        <v>65.70643867296793</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,13 +24424,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24601,7 +24601,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24616,10 +24616,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>143.8060970315903</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>51.71984429841023</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>14.73690369017557</v>
       </c>
       <c r="C31" t="n">
         <v>112.0435644700707</v>
@@ -24844,10 +24844,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801206</v>
       </c>
       <c r="F31" t="n">
-        <v>16.34068871346643</v>
+        <v>90.21779139437413</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571486</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>-1.423083885733101e-12</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>246312.5309592848</v>
+      </c>
+      <c r="C2" t="n">
+        <v>246312.5309592848</v>
+      </c>
+      <c r="D2" t="n">
         <v>246312.5309592849</v>
       </c>
-      <c r="C2" t="n">
-        <v>246312.530959285</v>
-      </c>
-      <c r="D2" t="n">
-        <v>246312.530959285</v>
-      </c>
       <c r="E2" t="n">
+        <v>234617.4358426252</v>
+      </c>
+      <c r="F2" t="n">
         <v>234617.4358426251</v>
-      </c>
-      <c r="F2" t="n">
-        <v>234617.4358426252</v>
       </c>
       <c r="G2" t="n">
         <v>234617.4358426252</v>
@@ -26338,13 +26338,13 @@
         <v>234617.4358426251</v>
       </c>
       <c r="K2" t="n">
-        <v>244093.2824071618</v>
+        <v>244093.2824071617</v>
       </c>
       <c r="L2" t="n">
         <v>246312.530959285</v>
       </c>
       <c r="M2" t="n">
-        <v>246312.5309592851</v>
+        <v>246312.530959285</v>
       </c>
       <c r="N2" t="n">
         <v>246312.530959285</v>
@@ -26353,7 +26353,7 @@
         <v>246312.530959285</v>
       </c>
       <c r="P2" t="n">
-        <v>246312.5309592851</v>
+        <v>246312.530959285</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26393,7 +26393,7 @@
         <v>44162.6053028457</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086686</v>
+        <v>10342.90680086683</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26402,10 +26402,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284571</v>
+        <v>44162.60530284567</v>
       </c>
     </row>
     <row r="4">
@@ -26421,40 +26421,40 @@
         <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007502</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007457</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007497</v>
+        <v>7916.731656007455</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007458</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007493</v>
+        <v>7916.731656007496</v>
       </c>
       <c r="K4" t="n">
-        <v>26081.35417020404</v>
+        <v>26081.35417020403</v>
       </c>
       <c r="L4" t="n">
-        <v>30335.51889732799</v>
+        <v>30335.51889732796</v>
       </c>
       <c r="M4" t="n">
-        <v>30335.51889732799</v>
+        <v>30335.51889732793</v>
       </c>
       <c r="N4" t="n">
-        <v>30335.51889732798</v>
+        <v>30335.51889732795</v>
       </c>
       <c r="O4" t="n">
-        <v>30335.51889732795</v>
+        <v>30335.51889732797</v>
       </c>
       <c r="P4" t="n">
         <v>30335.51889732796</v>
@@ -26479,16 +26479,16 @@
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26500,13 +26500,13 @@
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26522,46 +26522,46 @@
         <v>-574431.4750345899</v>
       </c>
       <c r="C6" t="n">
-        <v>15536.40417995467</v>
+        <v>15536.40417995455</v>
       </c>
       <c r="D6" t="n">
-        <v>15536.4041799547</v>
+        <v>15536.40417995461</v>
       </c>
       <c r="E6" t="n">
-        <v>-390446.6582389951</v>
+        <v>-390544.1173649672</v>
       </c>
       <c r="F6" t="n">
-        <v>134713.3782379011</v>
+        <v>134615.9191119286</v>
       </c>
       <c r="G6" t="n">
-        <v>134713.3782379011</v>
+        <v>134615.9191119288</v>
       </c>
       <c r="H6" t="n">
-        <v>134713.378237901</v>
+        <v>134615.9191119288</v>
       </c>
       <c r="I6" t="n">
-        <v>134713.378237901</v>
+        <v>134615.9191119287</v>
       </c>
       <c r="J6" t="n">
-        <v>-41709.84095469189</v>
+        <v>-41807.30008066412</v>
       </c>
       <c r="K6" t="n">
-        <v>77221.11440388925</v>
+        <v>77202.62066595483</v>
       </c>
       <c r="L6" t="n">
-        <v>107918.9994410648</v>
+        <v>107918.9994410649</v>
       </c>
       <c r="M6" t="n">
-        <v>-16539.10899190546</v>
+        <v>-16539.10899190551</v>
       </c>
       <c r="N6" t="n">
+        <v>118261.9062419317</v>
+      </c>
+      <c r="O6" t="n">
         <v>118261.9062419316</v>
       </c>
-      <c r="O6" t="n">
-        <v>118261.9062419317</v>
-      </c>
       <c r="P6" t="n">
-        <v>74099.300939086</v>
+        <v>74099.30093908594</v>
       </c>
     </row>
   </sheetData>
@@ -26713,16 +26713,16 @@
         <v>55.20325662855712</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964065</v>
@@ -26735,49 +26735,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26935,7 +26935,7 @@
         <v>55.20325662855712</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108357</v>
+        <v>12.92863350108353</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,10 +26944,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855709</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,13 +27379,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>307.6069362763349</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>4.619535190700105</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27470,7 +27470,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27537,10 +27537,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27594,16 +27594,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>27.38738814000482</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>79.14834405674489</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>398.1354417301188</v>
+        <v>79.46252714341784</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27673,7 +27673,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>118.9059720569138</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>90.65436901306916</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>26.84712108657635</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>331.0453771851816</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,13 +28026,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,7 +28065,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>142.2087470918708</v>
+        <v>193.2687479352325</v>
       </c>
     </row>
     <row r="11">
@@ -28144,7 +28144,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1.041087216435699e-12</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28275,7 +28275,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>-2.122154304136833e-12</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28810,7 +28810,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -29095,7 +29095,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -29329,10 +29329,10 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29806,7 +29806,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="44">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32163,10 +32163,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32175,19 +32175,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,10 +32400,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32412,19 +32412,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,10 +32637,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32783,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32938,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32947,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,31 +33020,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33111,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33175,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,31 +33184,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33257,31 +33257,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,7 +33348,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33412,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,31 +33421,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33494,31 +33494,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,7 +33585,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33649,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,31 +33658,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33731,31 +33731,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,7 +33822,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,7 +33886,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33895,31 +33895,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33968,31 +33968,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,7 +34059,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,7 +34123,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34132,31 +34132,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34205,31 +34205,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,7 +34296,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34360,7 +34360,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34369,31 +34369,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34442,31 +34442,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,7 +34533,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730626</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730084</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>434.7644551367891</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35571,7 +35571,7 @@
         <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799264</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,28 +35884,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>537.666887533699</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,28 +36121,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734238</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,25 +36361,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,13 +36437,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36452,13 +36452,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,25 +36598,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
         <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734239</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,13 +36911,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>282.0391115195483</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
@@ -36926,13 +36926,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37072,25 +37072,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734239</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520623</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L34" t="n">
         <v>318.3460770095692</v>
@@ -37245,7 +37245,7 @@
         <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,25 +37309,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,13 +37385,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
@@ -37400,13 +37400,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520623</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L37" t="n">
         <v>318.3460770095692</v>
@@ -37482,7 +37482,7 @@
         <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,25 +37546,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>588.4784392551036</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,16 +37698,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520624</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L40" t="n">
-        <v>318.3460770095693</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M40" t="n">
-        <v>342.4417313086133</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
         <v>341.4087679352443</v>
@@ -37716,10 +37716,10 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,25 +37783,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109105</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,13 +37859,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
@@ -37874,13 +37874,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L43" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095693</v>
       </c>
       <c r="M43" t="n">
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352444</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,25 +38020,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,13 +38096,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980129</v>
@@ -38111,13 +38111,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38190,7 +38190,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
